--- a/source_data/berber_1.xlsx
+++ b/source_data/berber_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAC8941-20EC-B446-9516-D1B8440077C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37258A59-1929-2D4F-AC28-7320DEB02D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37180" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="32220" windowHeight="23720" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
